--- a/medicine/Psychotrope/Dünnbier/Dünnbier.xlsx
+++ b/medicine/Psychotrope/Dünnbier/Dünnbier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%BCnnbier</t>
+          <t>Dünnbier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dünnbier ( « bière maigre ») est un type de bière légère et fine originaire du nord de l'Allemagne avec un taux d'alcool bas (4.5 à 5.5° Plato ou 2 à 3 % vol.). C'est une des rares einfachbier.
 Connue depuis le Moyen Âge comme étant la bière du pauvre, remplaçant le pain et l'eau (alors responsable de bien des épidémies), elle servit plus tard à rafraïchir les ouvriers et les mineurs de la Ruhr qui en consommaient à longueur de journée car elle était fournie gratuitement par les employeurs.
